--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N2">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O2">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P2">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q2">
-        <v>5.7414448E-05</v>
+        <v>1.660354562775334</v>
       </c>
       <c r="R2">
-        <v>0.0005167300320000001</v>
+        <v>14.943191064978</v>
       </c>
       <c r="S2">
-        <v>2.407811571304487E-09</v>
+        <v>0.0003102751590860622</v>
       </c>
       <c r="T2">
-        <v>2.407811571304486E-09</v>
+        <v>0.0003102751590860621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N3">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O3">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P3">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q3">
-        <v>1.278637106361333</v>
+        <v>158.5878635501747</v>
       </c>
       <c r="R3">
-        <v>11.507733957252</v>
+        <v>1427.290771951572</v>
       </c>
       <c r="S3">
-        <v>5.36226912814019E-05</v>
+        <v>0.02963576316488692</v>
       </c>
       <c r="T3">
-        <v>5.362269128140191E-05</v>
+        <v>0.02963576316488691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H4">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I4">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J4">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N4">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O4">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P4">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q4">
-        <v>7.313227491171333</v>
+        <v>477.0044148465054</v>
       </c>
       <c r="R4">
-        <v>65.81904742054201</v>
+        <v>4293.039733618549</v>
       </c>
       <c r="S4">
-        <v>0.0003066976064426225</v>
+        <v>0.08913916582604052</v>
       </c>
       <c r="T4">
-        <v>0.0003066976064426225</v>
+        <v>0.08913916582604049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H5">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I5">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J5">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N5">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O5">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P5">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q5">
-        <v>0.6235921134473332</v>
+        <v>51.38470326126134</v>
       </c>
       <c r="R5">
-        <v>5.612329021026</v>
+        <v>462.462329351352</v>
       </c>
       <c r="S5">
-        <v>2.615181994839886E-05</v>
+        <v>0.009602405014220628</v>
       </c>
       <c r="T5">
-        <v>2.615181994839886E-05</v>
+        <v>0.009602405014220623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N6">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O6">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P6">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q6">
-        <v>0.003550198642666667</v>
+        <v>1.961942912740111</v>
       </c>
       <c r="R6">
-        <v>0.031951787784</v>
+        <v>17.657486214661</v>
       </c>
       <c r="S6">
-        <v>1.488860325234213E-07</v>
+        <v>0.000366633828108786</v>
       </c>
       <c r="T6">
-        <v>1.488860325234213E-07</v>
+        <v>0.0003666338281087859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N7">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O7">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P7">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q7">
-        <v>79.06399656524155</v>
+        <v>187.3939108637015</v>
       </c>
       <c r="R7">
-        <v>711.5759690871739</v>
+        <v>1686.545197773314</v>
       </c>
       <c r="S7">
-        <v>0.003315736934427493</v>
+        <v>0.03501883080190137</v>
       </c>
       <c r="T7">
-        <v>0.003315736934427493</v>
+        <v>0.03501883080190137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N8">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O8">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P8">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q8">
-        <v>452.2103968093365</v>
+        <v>563.6479412502918</v>
       </c>
       <c r="R8">
-        <v>4069.893571284029</v>
+        <v>5072.831471252626</v>
       </c>
       <c r="S8">
-        <v>0.01896451962930504</v>
+        <v>0.105330486969987</v>
       </c>
       <c r="T8">
-        <v>0.01896451962930504</v>
+        <v>0.105330486969987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N9">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O9">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P9">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q9">
-        <v>38.55956038693189</v>
+        <v>60.71826864388044</v>
       </c>
       <c r="R9">
-        <v>347.036043482387</v>
+        <v>546.4644177949239</v>
       </c>
       <c r="S9">
-        <v>0.00161708696884221</v>
+        <v>0.01134659480889412</v>
       </c>
       <c r="T9">
-        <v>0.00161708696884221</v>
+        <v>0.01134659480889411</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H10">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N10">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O10">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P10">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q10">
-        <v>0.04859363426400001</v>
+        <v>3.543650142619112</v>
       </c>
       <c r="R10">
-        <v>0.4373427083760001</v>
+        <v>31.89285128357201</v>
       </c>
       <c r="S10">
-        <v>2.037889746368325E-06</v>
+        <v>0.0006622119373759739</v>
       </c>
       <c r="T10">
-        <v>2.037889746368325E-06</v>
+        <v>0.0006622119373759737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H11">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I11">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J11">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N11">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O11">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P11">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q11">
-        <v>1082.194919001954</v>
+        <v>338.4698171623475</v>
       </c>
       <c r="R11">
-        <v>9739.754271017588</v>
+        <v>3046.228354461128</v>
       </c>
       <c r="S11">
-        <v>0.04538442045771869</v>
+        <v>0.06325081324216415</v>
       </c>
       <c r="T11">
-        <v>0.0453844204577187</v>
+        <v>0.06325081324216415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H12">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I12">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J12">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N12">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O12">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P12">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q12">
-        <v>6189.66678901816</v>
+        <v>1018.057709237306</v>
       </c>
       <c r="R12">
-        <v>55707.00110116344</v>
+        <v>9162.519383135754</v>
       </c>
       <c r="S12">
-        <v>0.259578413383283</v>
+        <v>0.1902473271518568</v>
       </c>
       <c r="T12">
-        <v>0.2595784133832831</v>
+        <v>0.1902473271518568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H13">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I13">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J13">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N13">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O13">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P13">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q13">
-        <v>527.787136275777</v>
+        <v>109.6689918663164</v>
       </c>
       <c r="R13">
-        <v>4750.084226481993</v>
+        <v>987.020926796848</v>
       </c>
       <c r="S13">
-        <v>0.02213401013470466</v>
+        <v>0.02049415508049755</v>
       </c>
       <c r="T13">
-        <v>0.02213401013470466</v>
+        <v>0.02049415508049755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H14">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I14">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J14">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N14">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O14">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P14">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q14">
-        <v>0.001303436586666667</v>
+        <v>0.5978327946742223</v>
       </c>
       <c r="R14">
-        <v>0.01173092928</v>
+        <v>5.380495152068001</v>
       </c>
       <c r="S14">
-        <v>5.466271653151873E-08</v>
+        <v>0.0001117187073370357</v>
       </c>
       <c r="T14">
-        <v>5.466271653151873E-08</v>
+        <v>0.0001117187073370357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H15">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I15">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J15">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N15">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O15">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P15">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q15">
-        <v>29.02792665534222</v>
+        <v>57.10167442135911</v>
       </c>
       <c r="R15">
-        <v>261.25133989808</v>
+        <v>513.915069792232</v>
       </c>
       <c r="S15">
-        <v>0.001217355215044668</v>
+        <v>0.01067075160473726</v>
       </c>
       <c r="T15">
-        <v>0.001217355215044669</v>
+        <v>0.01067075160473726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H16">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I16">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J16">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N16">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O16">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P16">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q16">
-        <v>166.0266467877422</v>
+        <v>171.7517985573876</v>
       </c>
       <c r="R16">
-        <v>1494.23982108968</v>
+        <v>1545.766187016488</v>
       </c>
       <c r="S16">
-        <v>0.006962722715376598</v>
+        <v>0.03209574497849081</v>
       </c>
       <c r="T16">
-        <v>0.006962722715376599</v>
+        <v>0.03209574497849081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H17">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I17">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J17">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N17">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O17">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P17">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q17">
-        <v>14.15693791611556</v>
+        <v>18.50174742365689</v>
       </c>
       <c r="R17">
-        <v>127.41244124504</v>
+        <v>166.515726812912</v>
       </c>
       <c r="S17">
-        <v>0.0005937048968695518</v>
+        <v>0.003457473935958376</v>
       </c>
       <c r="T17">
-        <v>0.000593704896869552</v>
+        <v>0.003457473935958376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H18">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I18">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J18">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N18">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O18">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P18">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q18">
-        <v>0.000469883064</v>
+        <v>3.209537763227889</v>
       </c>
       <c r="R18">
-        <v>0.004228947576</v>
+        <v>28.885839869051</v>
       </c>
       <c r="S18">
-        <v>1.970566500368002E-08</v>
+        <v>0.000599775410869881</v>
       </c>
       <c r="T18">
-        <v>1.970566500368002E-08</v>
+        <v>0.000599775410869881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H19">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I19">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J19">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N19">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O19">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P19">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q19">
-        <v>10.464437823754</v>
+        <v>306.5572548571304</v>
       </c>
       <c r="R19">
-        <v>94.179940413786</v>
+        <v>2759.015293714174</v>
       </c>
       <c r="S19">
-        <v>0.0004388511142566625</v>
+        <v>0.05728722235134613</v>
       </c>
       <c r="T19">
-        <v>0.0004388511142566626</v>
+        <v>0.05728722235134613</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H20">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I20">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J20">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N20">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O20">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P20">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q20">
-        <v>59.851864138459</v>
+        <v>922.0703318435963</v>
       </c>
       <c r="R20">
-        <v>538.666777246131</v>
+        <v>8298.632986592367</v>
       </c>
       <c r="S20">
-        <v>0.002510030420160542</v>
+        <v>0.1723098941126722</v>
       </c>
       <c r="T20">
-        <v>0.002510030420160542</v>
+        <v>0.1723098941126723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H21">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I21">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J21">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N21">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O21">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P21">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q21">
-        <v>5.103512846676999</v>
+        <v>99.32887183663155</v>
       </c>
       <c r="R21">
-        <v>45.931615620093</v>
+        <v>893.959846529684</v>
       </c>
       <c r="S21">
-        <v>0.0002140279618560467</v>
+        <v>0.01856186756847559</v>
       </c>
       <c r="T21">
-        <v>0.0002140279618560467</v>
+        <v>0.01856186756847559</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H22">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I22">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J22">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N22">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O22">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P22">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q22">
-        <v>0.09458489607466666</v>
+        <v>1.928891862354445</v>
       </c>
       <c r="R22">
-        <v>0.851264064672</v>
+        <v>17.36002676119</v>
       </c>
       <c r="S22">
-        <v>3.966642808082291E-06</v>
+        <v>0.0003604574847263022</v>
       </c>
       <c r="T22">
-        <v>3.966642808082291E-06</v>
+        <v>0.0003604574847263022</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H23">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I23">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J23">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N23">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O23">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P23">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q23">
-        <v>2106.434217087643</v>
+        <v>184.2370577515622</v>
       </c>
       <c r="R23">
-        <v>18957.90795378879</v>
+        <v>1658.13351976406</v>
       </c>
       <c r="S23">
-        <v>0.08833833396944499</v>
+        <v>0.03442890072097751</v>
       </c>
       <c r="T23">
-        <v>0.08833833396944499</v>
+        <v>0.03442890072097751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H24">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I24">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J24">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N24">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O24">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P24">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q24">
-        <v>12047.8535685449</v>
+        <v>554.1526820431712</v>
       </c>
       <c r="R24">
-        <v>108430.6821169041</v>
+        <v>4987.374138388541</v>
       </c>
       <c r="S24">
-        <v>0.505255423368774</v>
+        <v>0.1035560809924299</v>
       </c>
       <c r="T24">
-        <v>0.505255423368774</v>
+        <v>0.1035560809924299</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H25">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I25">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J25">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N25">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O25">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P25">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q25">
-        <v>1027.309280120533</v>
+        <v>59.69540373621778</v>
       </c>
       <c r="R25">
-        <v>9245.783521084795</v>
+        <v>537.25863362596</v>
       </c>
       <c r="S25">
-        <v>0.04308266051748334</v>
+        <v>0.01115544914695906</v>
       </c>
       <c r="T25">
-        <v>0.04308266051748334</v>
+        <v>0.01115544914695906</v>
       </c>
     </row>
   </sheetData>
